--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1173,7 +1173,7 @@
     <t>MedicationAdministration.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(https://www.vision-zero-oncology.de/fhir/StructureDefinition/tumor)
 </t>
   </si>
   <si>
@@ -1346,7 +1346,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(https://www.vision-zero-oncology.de/fhir/StructureDefinition/tumor-disorder)
 </t>
   </si>
   <si>
@@ -2459,7 +2459,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.40234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-medication-administration.xlsx
+++ b/StructureDefinition-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
